--- a/biology/Botanique/Forêt_de_Saint-Germain_(Yonne)/Forêt_de_Saint-Germain_(Yonne).xlsx
+++ b/biology/Botanique/Forêt_de_Saint-Germain_(Yonne)/Forêt_de_Saint-Germain_(Yonne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Saint-Germain_(Yonne)</t>
+          <t>Forêt_de_Saint-Germain_(Yonne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Saint-Germain est une forêt située dans le département de l'Yonne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Saint-Germain_(Yonne)</t>
+          <t>Forêt_de_Saint-Germain_(Yonne)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie d'environ 2 500 hectares (25 kilomètres carrés), la forêt s'étend sur 6 communes :
 le sud de Seignelay
@@ -520,9 +534,9 @@
 le sud de Rouvray
 l'ouest de Montigny-la-Resle
 le nord de Villeneuve-Saint-Salves
-le nord-est de Gurgy[1]
+le nord-est de Gurgy
 Son altitude minimum est de 115 m dans la vallée des Vieux Rus vers les Usages d'Héry. 
-Le point le plus élevé est partagé entre Seignelay et Héry, avec 192 m d'altitude à 940 au sud-ouest de la Chapelle de la Pitié[1].
+Le point le plus élevé est partagé entre Seignelay et Héry, avec 192 m d'altitude à 940 au sud-ouest de la Chapelle de la Pitié.
 </t>
         </is>
       </c>
